--- a/dig_module_firmware_address.xlsx
+++ b/dig_module_firmware_address.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pma.sup" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="276">
   <si>
     <t>module(h)</t>
   </si>
@@ -640,7 +640,28 @@
     <t>3000,3001,3002,3004,30e3;</t>
   </si>
   <si>
+    <t>tx &amp; dcc config</t>
+  </si>
+  <si>
+    <t>tx_config and dcc config</t>
+  </si>
+  <si>
+    <t>3004(tx_set_done_ack)</t>
+  </si>
+  <si>
     <t>3000,3001,3004,30e3;3061,3064</t>
+  </si>
+  <si>
+    <t>tx_reset/tx_req/tx_rate</t>
+  </si>
+  <si>
+    <t>3004(tx_set_done)</t>
+  </si>
+  <si>
+    <t>3000,3001,3002,3004,30e3</t>
+  </si>
+  <si>
+    <t>4014(power on finsh)</t>
   </si>
   <si>
     <t>3000,3001,3002,3004,30e3;304a,30da</t>
@@ -930,11 +951,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -966,13 +987,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -980,14 +994,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,19 +1015,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,6 +1035,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,8 +1092,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,16 +1123,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,25 +1145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,31 +1157,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,37 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,7 +1217,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,7 +1295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,43 +1319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,21 +1402,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1428,6 +1434,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1442,202 +1483,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1647,20 +1668,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1676,13 +1687,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1704,67 +1718,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2086,8 +2067,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2104,257 +2085,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="31" customHeight="1" spans="1:9">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="4">
         <v>379</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="4">
         <v>386</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="57" spans="1:9">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="4">
         <v>595</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="4">
         <v>600</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="28.5" spans="1:9">
-      <c r="A4" s="36"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="4">
         <v>619</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="4">
         <v>623</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="28.5" spans="1:9">
-      <c r="A5" s="36"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="38">
+      <c r="A5" s="3"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="4">
         <v>2812</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="4">
         <v>2834</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:9">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="4">
         <v>3852</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="4">
         <v>3928</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="87" customHeight="1" spans="1:9">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="4">
         <v>6742</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="4">
         <v>6861</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="35"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="4">
         <v>670</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="4">
         <v>676</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="4">
         <v>3049</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:9">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" ht="28.5" spans="1:9">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" ht="28.5" spans="1:9">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2377,8 +2358,8 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2394,741 +2375,741 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:9">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="5">
         <v>54</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="5">
         <v>70</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" ht="71.25" spans="1:9">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="5">
         <v>283</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="5">
         <v>345</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:9">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="38" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="5">
         <v>727</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="5">
         <v>774</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="5">
         <v>3051</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="38" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="4">
         <v>943</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="4">
         <v>1009</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="4">
         <v>1607</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="4">
         <v>1611</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="4">
         <v>1677</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="4">
         <v>1683</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4">
         <v>1777</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="4">
         <v>1783</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="43" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="38">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4">
         <v>1897</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="4">
         <v>1903</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="43" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="38">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4">
         <v>6904</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="4">
         <v>6911</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="38" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="38">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4">
         <v>7116</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="4">
         <v>7123</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="38" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4">
         <v>7191</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="4">
         <v>7197</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="38" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="41"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="38">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4">
         <v>7266</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="4">
         <v>7272</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="38" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="41"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="38">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4">
         <v>7340</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="4">
         <v>7346</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="38" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="38">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4">
         <v>8302</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="4">
         <v>8308</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="43" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="43" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="4">
         <v>2133</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="4">
         <v>2141</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="43" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="4">
         <v>2757</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="4">
         <v>2797</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="43" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="4">
         <v>3628</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="4">
         <v>3678</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="4">
         <v>1019</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:9">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="38" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="4">
         <v>3706</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="4">
         <v>3850</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="43" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="4">
         <v>3966</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="4">
         <v>3970</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="43" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="4">
         <v>4125</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="4">
         <v>4134</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="43" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="43" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="4">
         <v>5359</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="4">
         <v>5383</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="43" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="41" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="4">
         <v>5591</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="4">
         <v>5600</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="43" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="38">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="4">
         <v>6331</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="4">
         <v>6348</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="43" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:9">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="41" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="4">
         <v>6691</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="4">
         <v>6737</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="38" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="41" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="35">
         <v>7808</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="35">
         <v>7844</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="38">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="4">
         <v>8231</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="4">
         <v>8237</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="43" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="38">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="4">
         <v>8202</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="4">
         <v>8215</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="43" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="4">
         <v>374</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="4">
         <v>399</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" ht="28.5" spans="1:9">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="38" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="4">
         <v>440</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="4">
         <v>490</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="38" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" ht="29" customHeight="1" spans="1:9">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="41" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="4">
         <v>2799</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="4">
         <v>2912</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="38" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:9">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="38">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="4">
         <v>3852</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="4">
         <v>3926</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="45" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3159,7 +3140,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -3175,76 +3156,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="4">
         <v>511</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="4">
         <v>511</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="4">
         <v>511</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4">
         <v>678</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="4">
         <v>678</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38">
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="4">
         <v>678</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3263,10 +3244,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3308,7 +3289,7 @@
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3316,280 +3297,314 @@
       <c r="A2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="4">
         <v>294</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" ht="28.5" spans="1:9">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4">
         <v>343</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="4">
         <v>535</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="19" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" ht="28.5" spans="1:9">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4">
         <v>566</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="4">
         <v>670</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="27"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" ht="57" spans="1:9">
-      <c r="A5" s="17"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="4">
         <v>2142</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="4">
         <v>2182</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" ht="31.5" customHeight="1" spans="1:9">
-      <c r="A6" s="17"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="4">
         <v>2829</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="4">
         <v>2870</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="87" customHeight="1" spans="1:9">
-      <c r="A7" s="17"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="4">
         <v>2942</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="4">
         <v>2994</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="27"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="4">
         <v>3004</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="4">
         <v>3042</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="27"/>
+      <c r="E8" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="4">
         <v>3188</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="4">
+        <v>3220</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3221</v>
+      </c>
+      <c r="D10" s="4">
         <v>3281</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14">
+      <c r="E10" s="22"/>
+      <c r="F10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:9">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4">
         <v>3302</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="4">
         <v>3346</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14">
+      <c r="E11" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:9">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4">
         <v>3386</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="4">
         <v>3410</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="14">
+      <c r="E12" s="10"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4">
         <v>3612</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="4">
         <v>3626</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="14">
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:9">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4">
         <v>3928</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="4">
         <v>4227</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="28" t="s">
+      <c r="E14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:9">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="30"/>
+    <row r="15" ht="15" customHeight="1" spans="1:9">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="28"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="28"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="G2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3603,8 +3618,8 @@
   <sheetPr/>
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3635,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>154</v>
@@ -3649,7 +3664,7 @@
     </row>
     <row r="2" ht="28.5" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -3660,12 +3675,12 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:9">
@@ -3679,12 +3694,12 @@
         <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3698,12 +3713,12 @@
         <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3732,12 +3747,12 @@
         <v>811</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:9">
@@ -3751,12 +3766,12 @@
         <v>643</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:9">
@@ -3770,12 +3785,12 @@
         <v>775</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3789,12 +3804,12 @@
         <v>1361</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:10">
@@ -3808,14 +3823,14 @@
         <v>2559</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -3830,12 +3845,12 @@
         <v>2713</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -3850,12 +3865,12 @@
         <v>2743</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -3870,12 +3885,12 @@
         <v>2749</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -3890,12 +3905,12 @@
         <v>2781</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -3910,12 +3925,12 @@
         <v>3138</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3929,14 +3944,14 @@
         <v>3702</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3950,12 +3965,12 @@
         <v>3718</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3969,12 +3984,12 @@
         <v>4336</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
       <c r="I18" s="4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:9">
@@ -3988,12 +4003,12 @@
         <v>4610</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
       <c r="I19" s="4" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:9">
@@ -4007,12 +4022,12 @@
         <v>4842</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
       <c r="I20" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4026,12 +4041,12 @@
         <v>4886</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
       <c r="I21" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4045,12 +4060,12 @@
         <v>5078</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
       <c r="I22" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4064,12 +4079,12 @@
         <v>5201</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
       <c r="I23" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4113,12 +4128,12 @@
         <v>5668</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="7"/>
       <c r="I26" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4132,12 +4147,12 @@
         <v>5714</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="7"/>
       <c r="I27" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4256,12 +4271,12 @@
         <v>6685</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="7"/>
       <c r="I35" s="4" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4305,12 +4320,12 @@
         <v>7602</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="7"/>
       <c r="I38" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4384,12 +4399,12 @@
         <v>6858</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4407,7 +4422,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>154</v>
@@ -4421,7 +4436,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="6"/>
@@ -4432,7 +4447,7 @@
         <v>4632</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -4464,7 +4479,7 @@
         <v>4644</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -4511,7 +4526,7 @@
         <v>4664</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -4558,7 +4573,7 @@
         <v>4679</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -4590,7 +4605,7 @@
         <v>1713</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -4637,7 +4652,7 @@
         <v>4725</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -4669,7 +4684,7 @@
         <v>4742</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -4701,7 +4716,7 @@
         <v>4896</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -4812,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>154</v>
@@ -4826,10 +4841,10 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4">
@@ -4841,7 +4856,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I70" s="6"/>
     </row>
@@ -4863,7 +4878,7 @@
     <row r="72" spans="1:9">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4">
@@ -4875,7 +4890,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="9" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I72" s="6"/>
     </row>
@@ -4897,7 +4912,7 @@
     <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4">
@@ -4909,7 +4924,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I74" s="6"/>
     </row>
@@ -4931,10 +4946,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D76" s="5">
         <v>1765</v>
@@ -4945,7 +4960,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I76" s="6"/>
     </row>
@@ -4994,7 +5009,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="10" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D80" s="4">
         <v>1968</v>
@@ -5005,7 +5020,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I80" s="6"/>
     </row>
@@ -5057,7 +5072,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="4">
@@ -5089,7 +5104,7 @@
     <row r="86" spans="1:9">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="4">
@@ -5121,7 +5136,7 @@
     <row r="88" spans="1:9">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="4">
@@ -5225,7 +5240,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>154</v>
@@ -5239,11 +5254,11 @@
     </row>
     <row r="95" ht="28" customHeight="1" spans="1:9">
       <c r="A95" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="4" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D95" s="4">
         <v>286</v>
@@ -5252,14 +5267,14 @@
         <v>286</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4">
         <v>286</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
